--- a/ShopifyBackupWeb/wwwroot/Data_Init/Export.xlsx
+++ b/ShopifyBackupWeb/wwwroot/Data_Init/Export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\App\ShopifyBackupWeb\ShopifyBackupWeb\wwwroot\Data_Init\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\App\ShopifyApp\ShopifyBackupWeb\wwwroot\Data_Init\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Image</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Carrer</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
   </si>
 </sst>
 </file>
@@ -492,23 +498,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="19" width="21.28515625" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="21.28515625" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,70 +522,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -600,6 +612,8 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
